--- a/FP/features.xlsx
+++ b/FP/features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinwitmer/Development/CS440/FP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D44200-D94D-DF45-B0B8-E3F5F6F0710E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D51525-BADA-A444-A420-BFF702672C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{24809A01-C420-8444-B836-9919C9ADD883}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="530">
   <si>
     <t>MSSubClass: Identifies the type of dwelling involved in the sale.</t>
   </si>
@@ -1612,6 +1612,9 @@
   </si>
   <si>
     <t>FireplaceQual</t>
+  </si>
+  <si>
+    <t>Qual</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1977,7 @@
   <dimension ref="A1:H523"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4025,7 +4028,7 @@
         <v>319</v>
       </c>
       <c r="B309" t="s">
-        <v>320</v>
+        <v>529</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
